--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/37_Hatay_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/37_Hatay_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAB7A4BE-6038-4767-AD9E-A0638043D395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8B1EC03-E2D7-4621-B824-BA4B7E3831E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="669" xr2:uid="{A3199229-05AB-4D2A-AF19-A452CB1ECA86}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{DAAE0267-4E2F-43C2-A871-9075A9EE3A73}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{1C8E6FE4-E615-4E0F-AFCB-188436F8BB6C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B90A9216-44B6-4DCC-81AD-0136EDA949DF}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D95A726A-1AA1-4746-AEFF-75757CF714B6}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E8F1D228-9D6F-4118-A48A-9D24EA42DB2F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C00DF65F-FE59-4A6D-9FEC-E493CEBC0B7F}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{41703A47-EA67-4269-8AF4-11D2EA338770}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{51BFAD34-E194-4DA1-8C19-44486F9B7B47}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{64B1C1AC-F732-4993-8C28-5FF49A9CFD82}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{16BFF627-480C-49C3-BDFD-1A8A670A4DB1}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D4D337A4-1655-4760-B342-4CA9427F7825}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{56ABEC02-9FE2-49E7-B7FC-013B6AE57F9C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D3443A0D-CCEC-414D-9776-0D0AC90667DD}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C24EF8EA-4029-4AD7-A245-58C0C8AB122F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{532E5478-D7EE-4D01-878C-511CD038105D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB14C898-A414-4486-BB70-8EE244425D8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB337F9-DEAB-418B-9991-E239D2231ADC}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2660,17 +2660,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{85BB15B5-A101-45B6-B955-6F7A0ADE3C3F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06B7950B-2C55-4D25-9B10-0E6209BAF32B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{81428471-6976-4187-AD79-E36D614250C9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{12777736-504E-4D8D-B39F-FB062436C0A5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DDC8B737-A145-4D71-A84E-BA1C665FB475}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0B49AB1D-7560-4B4C-A540-F31D9A7C95A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1E3B0DA-3A46-40B3-AFB0-0F879B090E53}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F4E6040-4DF6-451F-A81B-1A413D2DEA06}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{38FB1A35-49BC-4EE6-B9A1-0585C332F41A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{69D2AF9D-C969-4DBF-AAA3-4FA358824C2E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{033E69FB-B2F8-4AD1-9E4A-755630ABED05}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C3DA5F1-2A4E-40A0-A0A2-8A6CACC0C004}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E219723-0A8F-4F94-946C-7CDA4EA54F93}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5D206A3B-0590-46AA-8770-7CBED9CD1E79}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CE6E9F1C-6D30-4D56-B4AB-0EC66560C2CC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F6D09CA-FB0A-4FAF-9939-7282A9A2330D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FBDAF310-CAF5-4BAF-8FD9-57C489C35E21}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6143459-2792-4380-B987-5E8AD6B432D9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{192AFC9F-9020-466F-99D4-9FE7F92CBB2C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1AC30B90-32C6-4909-BA5E-5DEF8B5DE8A2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DB5735E5-21C7-4D18-9451-217B3B367AE6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11E14E5A-81C9-4C1C-8C55-F743FE871D7A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2683,7 +2683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE84B18-974E-4252-94B4-B121B4361EB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508FC2F2-4F27-40BB-A2B8-CC36B13D0ABC}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3985,17 +3985,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E33CC39E-35F9-41E6-BDD1-FF017BDF38E2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F4B4B3C-5AB9-419A-B00D-FC0CBCAB1F24}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ED397D8F-129B-4F3F-9729-FAC80E87C157}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{81ADBF95-F73D-4D2C-BA1A-967FA0E0419B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{657AE3BD-EA9A-4AC0-8DF8-83C3AE7AE67E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE65EC46-BA30-436E-9DAB-300CB9F35A8F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{53043790-E386-4E02-94CD-B11CA1B39A0F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C91548AE-4E3B-411B-915C-B6D1C8510E38}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7348EE1A-2B5F-45C4-B1BB-A093A57CC8DC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{ED4FEB56-A9FB-4E83-AAF9-B0C22BB8B68E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A1DC221-9051-4752-BE1C-743AF16065E9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E3CCC6E2-A8AF-40E9-94FD-3AF92CED0E96}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5040B867-9ED7-40F5-9D8C-5525B4F98126}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1C16602C-1F7B-4C78-B22D-E920EA87056A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{34DB36AE-FE63-49DE-ADC8-D9873CC29336}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE73270A-7103-4907-8900-323EED295F5E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{53A0712F-0231-4CE5-A319-504FEAE412C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80980F6A-538D-4EC8-9812-59DB4FB70DCB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5ADCEE63-5FB9-4AE0-BE8D-3D08E3EF42FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9FA6D0F0-6F96-4003-B237-9C358404E397}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6E6A5992-A810-4F1A-AAE5-EAF2C511BBC7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{79BCBCF4-7AAA-4B17-9FF4-F25E23DBFCE2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4008,7 +4008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7666CC0B-B916-4CD5-8751-711183F9409E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3007E260-16BF-4343-ACD0-B1183DD7ACBB}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5304,17 +5304,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F15774A9-F282-4665-872D-32209CA1A6C6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA73565A-D201-4DFE-B295-C884BEAE0FEA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{557E3ACA-B2BE-4DA4-8695-844C316EB1DB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7C3B5B2E-38C3-4E72-90B7-B7685921904C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C60925D-36D5-43EE-8907-FCE04CBD2AAC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0192BC0B-1605-463B-BCBD-927C3DAC058E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4454BE5-8792-4504-A866-82EC2CB1395C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7FAD8B75-2FDE-406F-A4A0-03FB70E98316}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F87D62EF-B7B8-44CB-AC3A-BD71A61925A0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8D73FF7F-8AE9-4944-AF40-DDA611BE1D99}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A75CD63-86CD-4F5B-900C-E6E4B78E6878}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6F609EA-CA49-4124-B5AD-8AF03A152D29}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B8329153-0A53-4924-A2EC-883406DDA958}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F1A10365-85E6-45DC-9B85-9ABC10FA247D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{361AC633-962D-47D9-9E8D-C2632864E5EA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B190C593-A839-46DB-9D80-6439AC3A49CF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7D829978-0DBE-4455-B21F-088230A51D6A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A81DFFED-0243-412F-863A-CFB5A29F4CCB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D5015FB-83F4-408C-A0E7-54482E7F1157}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D54D3130-0F99-40CD-BCD6-E98455D566AC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2329C2CB-E9EA-4826-917A-EACE6EB11955}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D1F8369-5084-49E7-B6D4-FC84BDD80F60}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5327,7 +5327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F945F30-56E3-4403-B2E8-622ECB8182E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EE786D-A08E-4C94-A304-29D3B5E9F081}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6617,17 +6617,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6A8CD600-0EEB-45D1-AAA8-A8E5EB0D2C27}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36CAF107-8D04-4896-B029-E2F991B5E36F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2C8F8AFC-164E-4E25-879D-F5DC86BD7977}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B716B10F-F280-48A5-BFC6-4C59E02E0DDA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{45E9DA42-F62C-46A2-A6EE-EB13A683BEA1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC044964-E7F2-4B52-8B49-9E3D01F92EBE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34E8CB4C-E25B-41F7-9036-6F8E9918080F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7F64E1F-90C7-4D7D-955E-0AB86E9C8D78}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6E77D3C6-A868-4088-8A11-E2D538DC29CF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{146CEE6B-8553-43EF-818C-6992108E97B3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81A1A649-4D3D-46CA-B1B9-8028A4F07A41}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{629E0806-B32A-4B2F-B2BA-B1A976FD2E71}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D843CCC-E78D-4D67-96E3-F9C929D65C9D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AC23C92A-0F7E-45BC-8F09-C6F578D1DA42}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C11918C5-735C-4AF5-9191-EB45DBE28D3D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F09242F-0C0B-442B-BB3D-AD78C89B90CC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0F6D4027-C4B0-4E50-918B-D26E47B45145}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E25BDA3B-CEA3-45A3-8DA6-CDBA6653353D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B0C2A13-B5BD-4546-90A0-957B91E892E5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{65E82958-6A3F-479C-A789-92F2AFB86CA8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F7AF7B6E-7CFE-4F67-B704-5E0D93CBCE20}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42915A5C-0471-442B-AC61-7469141719E0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6640,7 +6640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FA3F7B-3CE1-4D6C-B48D-6B001B613262}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FB5A8A-7A37-44B5-A145-7FA09AC1F24E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7945,17 +7945,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{910325B8-72F2-4B58-9E17-17DE6CE5BA1D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4BC312D9-4991-4844-8273-DBE7735911A2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B24034A1-F469-482D-BB8A-7FA5F429257B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C3DB49DD-3734-44D4-ABD3-6E754555D985}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F57C745-1A84-4483-8C99-30B19B6CFB82}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F99EBF43-0818-45A3-A530-1BC77E909FD2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F04B17B-A9F5-45F2-8014-6ABDE7D3A075}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD4F8584-9940-40E1-9650-87C5E2D1B596}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F202D51F-1912-4DD5-9F66-41BEA6015D9F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6A206B7F-F3E6-48D9-BECE-439ED24E21B1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1513754-51D0-4BE4-82CB-30C7CEA8E596}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7913FEFF-7E6B-4FAA-83D1-F54A4CB6EEAC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5243B1E-C08E-46F9-A4A3-C2A935127781}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1F868C9B-9738-4354-B079-994476A79C81}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B7CECF3-B6A2-415C-A557-32AEFB401EFA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1556F9F4-664F-42E5-AE28-0ECC4F8B0833}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0E1B5FDB-72AA-45DE-A8A1-A3F13BE253F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BF2317F-2C78-40E5-AB25-35CC1FA4537F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A62A06B-E477-4132-917A-81D03F959F43}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{88F657E2-2C61-42D0-9C0D-EE66494474A6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{90010575-D76E-4C26-B1F1-9C2B67F27F01}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE88BA97-DBE2-4F77-8F5B-13B399AE74CF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7968,7 +7968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C305DDCD-096A-497B-A456-4783E28C0567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C396273-5E80-4784-B327-92BCAED9979F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9273,17 +9273,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{799BC34A-4F86-4C43-A2F0-29EBEFDFCF2A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9AA88FD2-1B20-4E86-931C-036E43F0F878}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F505A036-F2DC-496F-812F-FC5D4B2DE532}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A835606F-1283-4E04-9618-307D836829B3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{042C0A35-F207-4276-91FA-EF641B9DD30F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E724392D-1E5E-4062-96E7-6D58F3C94889}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{254F3D50-DC85-4593-88CF-00D2723037E1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3E22542B-1CCD-40C6-A2E2-6575267B3E58}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D5F2DD93-19AD-4733-BB2D-D9256540A467}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7DBB74A3-96ED-4B74-BC6C-F1ACABFA54E1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C7A9464-9F63-4F48-88A5-6523A686A34A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D34504C5-B47C-4519-961A-69E26D13EF47}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{930E7916-E7F7-4C4D-91E9-8C37FB3DA247}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EF989A0F-5C61-4731-91DF-8423654609B3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{96DC5CA4-8DCB-4E35-B2F9-566DDA1F3340}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A021903-13CB-4434-8E28-92AADA739802}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{68702A0D-49BE-48B4-8D55-33FCC5ACF79B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F6AF0B6-E7F4-4F9E-85EB-8F88654A8FB4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D1224FF-B243-4333-8E3E-F706AEF2837A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{656C345A-BC06-4E84-A23E-8C1CADECA9E3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{19554FFE-E080-4215-AB86-FBDA2D1D6497}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2FE72054-EAEB-43C7-A6FB-E2887EC7EC35}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9296,7 +9296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DCD283-81C2-41BA-B2AF-72DF5F7B756E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F287B25-D45D-4C5B-ACA8-86AC2127219A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10601,17 +10601,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{001AAA32-5D5D-450A-972B-A10749F9F4D9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48DCA8F7-FF9F-42FA-826A-80630A72FE00}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6432CA57-22A1-421C-937E-5456409BF0D7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{61372A01-581B-470A-9F21-403156D96257}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{58211B34-B65E-4C42-A792-40F549DB5B52}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B3F7893E-50B7-41AF-AD08-1FC4C77DBA9A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5BD4BB18-F762-437F-B25A-FD9132B94A07}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB44B729-DB93-48CC-9F85-52215818ED8F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8DBFB649-4B94-4EB8-9E33-825DBED1AB5C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F85B3A69-8783-4841-BF95-54E6EB175AE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E906FBC7-C2F8-4CC6-86D0-FB0EFA6A4133}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{655DCC38-2E57-4A23-BAB4-BB47AE43973B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B691BAA5-8BD2-4CC8-BAEF-02A2339CD802}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E281BFB2-7557-4E6D-B62F-DBFCF63B9BC9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{27B106E1-C41D-47F1-8A8A-5DEB72AE7B72}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1850924-0003-4E14-8DB7-3C51C343D8C0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{24496B91-E033-47BE-A5C0-404529FC9F82}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0AC2BA24-E45F-4B22-A10A-36B2DCC999B1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{458C81E3-020B-4601-8628-52D8D24E631C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{332D760B-1D88-4959-BD77-1F199E8B24F1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7296838E-10AE-43B3-B464-214D39BDC4E7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{711261AB-F9AD-46CA-87F7-1A382FACE34A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10624,7 +10624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0875BE00-9F66-41D0-8C2F-D1520A6B5E4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB702C05-720A-48FA-BD98-CE1AFE15EF9B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11925,17 +11925,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4BFFB2F2-8CBF-481F-AE19-4B4D2ED214F7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07C7CE86-F06D-4FA3-B8F8-4C06E73C4740}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EDA293B8-66A2-4600-8F6B-3222FC02FFAA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9A2A061B-E5EA-4091-AE4D-3D9F8312ECBC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A84D6409-05A9-4795-B8D5-C8F55E0430AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{84F3A6F0-0AA3-4524-9CD6-413379C717DC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17FA198D-DE37-470A-93AB-F31373A7A30D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DAF38540-5B7E-4860-ACF9-C7DD09904909}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{46DDA3D5-17D0-48DE-AA12-D05B59CB7B41}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EBC75E6A-7C67-42C0-AF11-5BB0DE0C855E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90F94E4B-9BA4-4068-B61A-2953CB23D18D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44F9494D-2B55-4260-A646-C331979C6A11}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8A471135-D5E9-416F-906F-43EBAF0F58AA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2CC80EC7-F37A-4CB4-9F15-0EF376A0AAB7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6F2E824C-5675-4C44-BC7A-0F41EA683AD3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B44926B5-CA45-439D-A60C-36C148794C54}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0B3580C7-631A-46A7-959F-5058B23E1F97}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{447EFE5A-0310-4775-81AF-0D5185DFE0A1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C1E3070-8822-41AE-9C3E-C47DA502187B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D4E7CEE6-DAF0-479A-98D9-B3A3877101C2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AFF43ECC-E361-42B5-8F5E-3A43FAC8B77B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E142E100-295D-4ED8-8570-B93A2B8179C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11948,7 +11948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BCC1F3-A8E9-4891-B8BA-74FE7C46041E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9C3DBF-19D8-421C-9EA8-CC0AAF18BB23}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13249,17 +13249,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E100D4C3-B217-4EFC-82AC-9FDC8AC8961D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4847BC7B-6B6A-46DD-8E8A-81EC2AE8BAA6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BDB9EDD6-B332-42CE-ADE5-CB8F81B82FF4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{44B4BE0A-CCA8-4AED-9DBA-7695278B36C5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{62776E31-D695-48C7-9879-24E721A3CEF0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{35AD472F-3D75-4944-BCAC-1129474C8853}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{665BAD5E-54A2-47C9-BB86-5F1F55E8108A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14B8594C-6D5F-483B-A5D5-DEA1562295AD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9C372757-8E63-4CFA-9043-27E2413487A0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9DE2FBAD-A6D1-4C49-AFCA-CD8704519032}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E04CE5D-6F5E-47C4-ACAF-D052A57CE11A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{57B5A197-AD84-4815-B282-DAFA501B1ED9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D091707-CCEF-406F-9D4F-CC753BEA49A7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EBBA30F1-ED1E-4B00-A5CF-78BA7CE1EA25}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{180FFE75-FB07-46BC-A826-8E8C5850A17D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75DD8670-485D-4C3B-B02E-5B960392889E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3FCB4A83-E511-4891-8547-95D7AF474CF6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8BB75682-8F31-4B1B-87AE-2F36C630E0BB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC49FDE3-6F0D-4268-9345-95C91C33EBDE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EA00EBB6-B102-4253-AC76-70B32AADE1DC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DC6BB5EC-77A9-4248-AF32-909566A63D0C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE930E63-FC7E-40CF-8775-EC5AB64D46DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13272,7 +13272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA62440-511A-4426-86FB-0114A9901C95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13BC2B8-FBB9-4F44-9D80-75E619AA1A7D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14573,17 +14573,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E068F713-D4A1-4DE7-B0F0-8BD8BDC939DB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0815D6DD-0FB0-4905-87B1-D4548DC2DE7F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{15CD0860-0B2B-41CC-96AE-F9654B8BBB20}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{49E3455D-1026-4CC5-881B-45295A21C6FD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{68A49541-74C8-4FCF-AB0C-2CB19B00150E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B4454334-BB1C-497A-B979-9A24BC9046D8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D1B6535-DE74-42C7-AF7B-F04D66F9E4D0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA259884-0D0B-4C5D-9471-9E4A4A170A4B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5623BEE0-0459-40B4-AD15-7B1062BF231D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D13AC9F8-130E-4D08-89F2-C38F28866BDF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6243E800-B1BE-4A86-BDB5-BF9D01A52069}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BDAA080E-FB51-4B31-BA0E-67A430FE9611}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61B153A7-EA88-4DFD-9881-32D7CBCC2A96}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{94CAF64A-1AD5-41F9-A50C-2086E5DE90F3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0B9448FF-08C5-48A2-9A05-EFB145E7AB84}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{90D288D5-64A1-4575-B2D3-63C82D8A6CC8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D33CBF4A-20BD-4D70-A91A-286F4B2127E3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA891ED5-16DF-4672-87DE-B50502679D87}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B4B8D51-DE07-4A68-9B91-5FA95553CB81}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E5A32CB3-9CD6-4C20-8ED3-CBE8A3AAA7A8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{08476BBD-4960-42BF-A2A4-CAF770F6E9BD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0503B7A5-8907-42B6-8C37-F2F30A549260}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14596,7 +14596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1B2941-7CB3-4256-B784-5A0B050F2827}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C846AD37-3D01-4E18-81FA-34FDDE54DAB4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15897,17 +15897,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2279F470-FAF3-4CE5-BB18-DC6E7E9E543B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{073BD380-DFE7-429F-BFA1-5506AD0C0BD2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CE431D6E-B57D-4E08-A276-CFEF035F512A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{24AEF215-7837-41F0-8115-3CA0C9CE809C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{559E2ADD-E6F2-404A-8F04-DC0AA775DF17}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{03B1DCA3-06E4-449F-A970-5F32A133C6DE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{46C89B30-11AD-47DD-B0BF-9E6524F14A26}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{989E7DF8-F294-40B4-AAF5-7A492E319DF0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{792A7920-32F3-4EF3-8CEB-3856C48BA4E6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9EA87AA4-8081-4C50-B944-84DD1475BF5D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F798A407-80AC-4C8E-8CB9-16ED350A392A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8BC8C681-8545-4243-9A5D-51A7035DA888}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D8A1BBF-8F9F-4E1D-8347-55A71783C334}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{78C6171F-8227-4FAF-A1C8-1B06DDDFFB09}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE9876A4-6FA0-4BDA-83F6-1E0DB7BD4D1B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00C6938F-7FE0-4765-B61D-12D10D3177E9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{035CD5EB-4E5B-4251-87F7-16944E4251FE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82F081C5-29C5-4773-B1C2-3310075E984C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3BE0A0D7-AB9C-4825-A6F3-6E8F6F579ABD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6C24894B-B5EF-45CF-B8C9-A3488B4D681C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2DEA9D56-9A5F-450D-8126-FDAA085CD0F8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F5F8308-8FAD-4C45-B040-55B04079A916}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15920,7 +15920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EE9DCB-0003-4E37-A68E-1A80D40DC3BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD5C085-0DC8-4927-A74B-E19F2D49CE27}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17221,17 +17221,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40EB2ABA-3688-4379-80AD-977A821D871E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26B50313-93AB-4A31-BEF8-973DD57E7AD7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{50D6CCDB-273F-4AD1-BB70-9C0EC103F6C1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F917DEDA-EB96-4A04-BF40-74D478122BB1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9716A6E2-690D-44A5-8240-5AFCF7247DBF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{478E58D8-392B-46FA-86F8-EF6C3E2A11B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44851E43-0346-42E2-A46F-3C88A5A6A02B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7920680C-33FE-4A58-B9E5-A9AF0F268A71}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6BCA6A0C-DE15-4352-9E33-B298D2E95044}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2C821331-6640-4BCD-8C85-82A4FFF6CAE1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7639F4DC-26C9-4392-A6E8-96C016D329C0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6CAAAD2B-4673-45B9-8205-B42E3A970518}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49BE6DE0-146C-48D2-A1CB-D6CCFE989BCF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D7C95D3D-1A1B-4B4A-AAB3-A566571454EE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E6658CD8-5E99-4802-9DD3-84938E4A3A86}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96191466-203A-4CAD-8135-E98FC2CA14AB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E4565D03-D88D-4642-B98F-B637030640B5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5BC63F00-BB68-407E-8554-722570413205}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{293510DB-11D4-4D18-BA76-63425F697F1A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{82C01FBF-AE0C-4CC3-8B78-6228923CF543}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CF4EEF2F-4D01-4F27-89B4-9AC2946DBD32}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1F5935A7-EA4D-4FFA-851B-1B6B76B374DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
